--- a/EMR Survey Detection Data (version 1).xlsx
+++ b/EMR Survey Detection Data (version 1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://michigantech-my.sharepoint.com/personal/tmbarnes_mtu_edu/Documents/PhD/EMR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC30A33B-AECD-46B8-B6E6-203CFB78A309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{FC30A33B-AECD-46B8-B6E6-203CFB78A309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F97F1646-F660-48F9-BC1C-FFAA596A5CA1}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{A68102FC-C817-458D-A164-90ED0BAF0181}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A68102FC-C817-458D-A164-90ED0BAF0181}"/>
   </bookViews>
   <sheets>
     <sheet name="All Sites" sheetId="1" r:id="rId1"/>
@@ -665,7 +665,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -675,6 +675,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -691,7 +697,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -710,6 +716,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -16204,8 +16222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E91463E-5556-4842-A447-A55FC2B571E1}">
   <dimension ref="A1:I204"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
+      <selection activeCell="N193" sqref="N193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16277,57 +16295,57 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1">
-        <v>45512</v>
+        <v>45488</v>
       </c>
       <c r="C3" s="2">
-        <v>0.44097222222222227</v>
+        <v>0.1763888888888889</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="I3">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1">
-        <v>45515</v>
+        <v>45550</v>
       </c>
       <c r="C4" s="2">
-        <v>0.68194444444444446</v>
+        <v>0.11388888888888889</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I4">
         <v>80</v>
@@ -16335,13 +16353,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1">
-        <v>45528</v>
+        <v>45537</v>
       </c>
       <c r="C5" s="2">
-        <v>0.57152777777777775</v>
+        <v>0.48472222222222222</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
@@ -16356,126 +16374,126 @@
         <v>44</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="I5">
-        <v>91</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1">
-        <v>45528</v>
+        <v>45410</v>
       </c>
       <c r="C6" s="2">
-        <v>0.58263888888888882</v>
+        <v>0.61527777777777781</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="I6">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1">
-        <v>45528</v>
+        <v>45492</v>
       </c>
       <c r="C7" s="2">
-        <v>0.57152777777777775</v>
+        <v>0.14930555555555555</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>179</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="I7">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1">
-        <v>45532</v>
+        <v>45512</v>
       </c>
       <c r="C8" s="2">
-        <v>0.61527777777777781</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G8" t="s">
         <v>44</v>
       </c>
       <c r="H8" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I8">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1">
-        <v>45535</v>
+        <v>45527</v>
       </c>
       <c r="C9" s="2">
-        <v>0.84791666666666676</v>
+        <v>0.47500000000000003</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
         <v>3</v>
       </c>
-      <c r="F9">
-        <v>6</v>
-      </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H9" t="s">
-        <v>94</v>
+        <v>15</v>
       </c>
       <c r="I9">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -16483,184 +16501,184 @@
         <v>12</v>
       </c>
       <c r="B10" s="1">
-        <v>45537</v>
+        <v>45532</v>
       </c>
       <c r="C10" s="2">
-        <v>0.48472222222222222</v>
+        <v>0.90069444444444446</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E10">
         <v>3</v>
       </c>
       <c r="F10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="I10">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1">
-        <v>45542</v>
+        <v>45538</v>
       </c>
       <c r="C11" s="2">
-        <v>0.50277777777777777</v>
+        <v>0.62708333333333333</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
         <v>3</v>
       </c>
-      <c r="F11">
-        <v>6</v>
-      </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H11" t="s">
         <v>47</v>
       </c>
       <c r="I11">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1">
-        <v>45555</v>
+        <v>45565</v>
       </c>
       <c r="C12" s="2">
-        <v>0.51250000000000007</v>
+        <v>0.625</v>
       </c>
       <c r="D12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E12">
         <v>3</v>
       </c>
       <c r="F12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G12" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H12" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="I12">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="B13" s="1">
-        <v>45557</v>
+        <v>45492</v>
       </c>
       <c r="C13" s="2">
-        <v>0.51527777777777783</v>
+        <v>0.12708333333333333</v>
       </c>
       <c r="D13" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G13" t="s">
-        <v>44</v>
+        <v>179</v>
       </c>
       <c r="H13" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="I13">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>45558</v>
+        <v>45484</v>
       </c>
       <c r="C14" s="2">
-        <v>0.54236111111111118</v>
+        <v>13.13</v>
       </c>
       <c r="D14" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H14" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="I14">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>45561</v>
+        <v>45516</v>
       </c>
       <c r="C15" s="2">
-        <v>0.6069444444444444</v>
+        <v>0.4381944444444445</v>
       </c>
       <c r="D15" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G15" t="s">
         <v>44</v>
       </c>
       <c r="H15" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="I15">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B16" s="1">
-        <v>45410</v>
+        <v>45525</v>
       </c>
       <c r="C16" s="2">
-        <v>0.61527777777777781</v>
+        <v>0.67847222222222225</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
@@ -16675,30 +16693,30 @@
         <v>43</v>
       </c>
       <c r="H16" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="I16">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="B17" s="1">
-        <v>45431</v>
+        <v>45527</v>
       </c>
       <c r="C17" s="2">
-        <v>0.6430555555555556</v>
+        <v>0.64652777777777781</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G17" t="s">
         <v>43</v>
@@ -16707,18 +16725,18 @@
         <v>21</v>
       </c>
       <c r="I17">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="B18" s="1">
-        <v>45437</v>
+        <v>45530</v>
       </c>
       <c r="C18" s="2">
-        <v>0.57013888888888886</v>
+        <v>0.51597222222222217</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
@@ -16727,56 +16745,56 @@
         <v>2</v>
       </c>
       <c r="F18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H18" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="I18">
-        <v>77</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="B19" s="1">
-        <v>45438</v>
+        <v>45530</v>
       </c>
       <c r="C19" s="2">
-        <v>0.57152777777777775</v>
+        <v>0.65208333333333335</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G19" t="s">
         <v>43</v>
       </c>
       <c r="H19" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I19">
-        <v>80</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="B20" s="1">
-        <v>45453</v>
+        <v>45530</v>
       </c>
       <c r="C20" s="2">
-        <v>0.54236111111111118</v>
+        <v>0.20208333333333331</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
@@ -16785,27 +16803,27 @@
         <v>2</v>
       </c>
       <c r="F20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G20" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H20" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I20">
-        <v>73</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B21" s="1">
-        <v>45465</v>
+        <v>45531</v>
       </c>
       <c r="C21" s="2">
-        <v>0.54305555555555551</v>
+        <v>0.7055555555555556</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
@@ -16820,21 +16838,21 @@
         <v>43</v>
       </c>
       <c r="H21" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I21">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B22" s="1">
-        <v>45484</v>
+        <v>45566</v>
       </c>
       <c r="C22" s="2">
-        <v>13.13</v>
+        <v>0.58124999999999993</v>
       </c>
       <c r="D22" t="s">
         <v>7</v>
@@ -16849,21 +16867,21 @@
         <v>43</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B23" s="1">
-        <v>45484</v>
+        <v>45526</v>
       </c>
       <c r="C23" s="2">
-        <v>0.54027777777777775</v>
+        <v>0.43124999999999997</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
@@ -16878,21 +16896,21 @@
         <v>44</v>
       </c>
       <c r="H23" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="I23">
-        <v>86</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="B24" s="1">
-        <v>45484</v>
+        <v>45561</v>
       </c>
       <c r="C24" s="2">
-        <v>0.6333333333333333</v>
+        <v>0.51250000000000007</v>
       </c>
       <c r="D24" t="s">
         <v>7</v>
@@ -16907,224 +16925,224 @@
         <v>53</v>
       </c>
       <c r="H24" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I24">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B25" s="1">
-        <v>45486</v>
+        <v>45567</v>
       </c>
       <c r="C25" s="2">
-        <v>0.53749999999999998</v>
+        <v>0.4916666666666667</v>
       </c>
       <c r="D25" t="s">
         <v>7</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H25" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="I25">
-        <v>90</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B26" s="1">
-        <v>45488</v>
+        <v>45567</v>
       </c>
       <c r="C26" s="2">
-        <v>0.1763888888888889</v>
+        <v>0.6118055555555556</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H26" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="I26">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="B27" s="1">
-        <v>45492</v>
+        <v>45571</v>
       </c>
       <c r="C27" s="2">
-        <v>12.52</v>
+        <v>0.59027777777777779</v>
       </c>
       <c r="D27" t="s">
         <v>7</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H27" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I27">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B28" s="1">
-        <v>45492</v>
+        <v>45576</v>
       </c>
       <c r="C28" s="2">
-        <v>8.1250000000000003E-2</v>
+        <v>0.65763888888888888</v>
       </c>
       <c r="D28" t="s">
         <v>7</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>179</v>
+        <v>43</v>
       </c>
       <c r="H28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I28">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B29" s="1">
-        <v>45492</v>
+        <v>45578</v>
       </c>
       <c r="C29" s="2">
-        <v>0.11041666666666666</v>
+        <v>0.54791666666666672</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>179</v>
+        <v>43</v>
       </c>
       <c r="H29" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="I29">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="B30" s="1">
-        <v>45492</v>
+        <v>45578</v>
       </c>
       <c r="C30" s="2">
-        <v>0.12708333333333333</v>
+        <v>0.56527777777777777</v>
       </c>
       <c r="D30" t="s">
         <v>7</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>179</v>
+        <v>43</v>
       </c>
       <c r="H30" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="I30">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B31" s="1">
-        <v>45492</v>
+        <v>45582</v>
       </c>
       <c r="C31" s="2">
-        <v>0.14930555555555555</v>
+        <v>0.54236111111111118</v>
       </c>
       <c r="D31" t="s">
         <v>7</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>179</v>
+        <v>43</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I31">
-        <v>79</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B32" s="1">
-        <v>45496</v>
+        <v>45542</v>
       </c>
       <c r="C32" s="2">
-        <v>0.52013888888888882</v>
+        <v>0.70416666666666661</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
@@ -17133,27 +17151,27 @@
         <v>2</v>
       </c>
       <c r="F32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G32" t="s">
-        <v>179</v>
+        <v>53</v>
       </c>
       <c r="H32" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="I32">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="B33" s="1">
-        <v>45498</v>
+        <v>45542</v>
       </c>
       <c r="C33" s="2">
-        <v>0.44375000000000003</v>
+        <v>0.17708333333333334</v>
       </c>
       <c r="D33" t="s">
         <v>7</v>
@@ -17165,169 +17183,169 @@
         <v>4</v>
       </c>
       <c r="G33" t="s">
-        <v>179</v>
+        <v>44</v>
       </c>
       <c r="H33" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="I33">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="B34" s="1">
-        <v>45500</v>
+        <v>45543</v>
       </c>
       <c r="C34" s="2">
-        <v>0.67222222222222217</v>
+        <v>0.5</v>
       </c>
       <c r="D34" t="s">
         <v>7</v>
       </c>
       <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
         <v>3</v>
       </c>
-      <c r="F34">
-        <v>6</v>
-      </c>
       <c r="G34" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H34" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I34">
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B35" s="1">
-        <v>45506</v>
+        <v>45585</v>
       </c>
       <c r="C35" s="2">
-        <v>0.44305555555555554</v>
+        <v>0.65763888888888888</v>
       </c>
       <c r="D35" t="s">
         <v>7</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H35" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="I35">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="B36" s="1">
-        <v>45512</v>
+        <v>45484</v>
       </c>
       <c r="C36" s="2">
-        <v>0.63750000000000007</v>
+        <v>0.54027777777777775</v>
       </c>
       <c r="D36" t="s">
         <v>7</v>
       </c>
       <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
         <v>2</v>
-      </c>
-      <c r="F36">
-        <v>4</v>
       </c>
       <c r="G36" t="s">
         <v>44</v>
       </c>
       <c r="H36" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="I36">
-        <v>70</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="B37" s="1">
-        <v>45512</v>
+        <v>45531</v>
       </c>
       <c r="C37" s="2">
-        <v>0.22500000000000001</v>
+        <v>0.76041666666666663</v>
       </c>
       <c r="D37" t="s">
         <v>7</v>
       </c>
       <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
         <v>2</v>
-      </c>
-      <c r="F37">
-        <v>4</v>
       </c>
       <c r="G37" t="s">
         <v>44</v>
       </c>
       <c r="H37" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="I37">
-        <v>84</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B38" s="1">
-        <v>45516</v>
+        <v>45534</v>
       </c>
       <c r="C38" s="2">
-        <v>0.4381944444444445</v>
+        <v>0.6777777777777777</v>
       </c>
       <c r="D38" t="s">
         <v>7</v>
       </c>
       <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
         <v>2</v>
-      </c>
-      <c r="F38">
-        <v>4</v>
       </c>
       <c r="G38" t="s">
         <v>44</v>
       </c>
       <c r="H38" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="I38">
-        <v>75</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="B39" s="1">
-        <v>45518</v>
+        <v>45566</v>
       </c>
       <c r="C39" s="2">
-        <v>7.4999999999999997E-2</v>
+        <v>0.51458333333333328</v>
       </c>
       <c r="D39" t="s">
         <v>7</v>
@@ -17342,50 +17360,50 @@
         <v>44</v>
       </c>
       <c r="H39" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I39">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="B40" s="1">
-        <v>45521</v>
+        <v>45492</v>
       </c>
       <c r="C40" s="2">
-        <v>0.65069444444444446</v>
+        <v>8.1250000000000003E-2</v>
       </c>
       <c r="D40" t="s">
         <v>7</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G40" t="s">
-        <v>44</v>
+        <v>179</v>
       </c>
       <c r="H40" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="I40">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B41" s="1">
-        <v>45521</v>
+        <v>45492</v>
       </c>
       <c r="C41" s="2">
-        <v>0.55208333333333337</v>
+        <v>0.11041666666666666</v>
       </c>
       <c r="D41" t="s">
         <v>7</v>
@@ -17394,27 +17412,27 @@
         <v>2</v>
       </c>
       <c r="F41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G41" t="s">
-        <v>43</v>
+        <v>179</v>
       </c>
       <c r="H41" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="I41">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="B42" s="1">
-        <v>45523</v>
+        <v>45496</v>
       </c>
       <c r="C42" s="2">
-        <v>0.10416666666666667</v>
+        <v>0.52013888888888882</v>
       </c>
       <c r="D42" t="s">
         <v>7</v>
@@ -17426,53 +17444,53 @@
         <v>4</v>
       </c>
       <c r="G42" t="s">
-        <v>44</v>
+        <v>179</v>
       </c>
       <c r="H42" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="I42">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="B43" s="1">
-        <v>45525</v>
+        <v>45506</v>
       </c>
       <c r="C43" s="2">
-        <v>0.54513888888888895</v>
+        <v>0.44305555555555554</v>
       </c>
       <c r="D43" t="s">
         <v>7</v>
       </c>
       <c r="E43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F43">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G43" t="s">
         <v>44</v>
       </c>
       <c r="H43" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I43">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B44" s="1">
-        <v>45526</v>
+        <v>45566</v>
       </c>
       <c r="C44" s="2">
-        <v>0.43124999999999997</v>
+        <v>0.59861111111111109</v>
       </c>
       <c r="D44" t="s">
         <v>7</v>
@@ -17487,21 +17505,21 @@
         <v>44</v>
       </c>
       <c r="H44" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="I44">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B45" s="1">
-        <v>45526</v>
+        <v>45486</v>
       </c>
       <c r="C45" s="2">
-        <v>0.60347222222222219</v>
+        <v>0.53749999999999998</v>
       </c>
       <c r="D45" t="s">
         <v>7</v>
@@ -17510,85 +17528,85 @@
         <v>2</v>
       </c>
       <c r="F45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H45" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="I45">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B46" s="1">
-        <v>45527</v>
+        <v>45533</v>
       </c>
       <c r="C46" s="2">
-        <v>0.64652777777777781</v>
+        <v>0.34097222222222223</v>
       </c>
       <c r="D46" t="s">
         <v>7</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G46" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H46" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="I46">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="B47" s="1">
-        <v>45527</v>
+        <v>45570</v>
       </c>
       <c r="C47" s="2">
-        <v>0.47500000000000003</v>
+        <v>0.66736111111111107</v>
       </c>
       <c r="D47" t="s">
         <v>7</v>
       </c>
       <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
         <v>2</v>
       </c>
-      <c r="F47">
-        <v>3</v>
-      </c>
       <c r="G47" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H47" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="I47">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B48" s="1">
-        <v>45529</v>
+        <v>45431</v>
       </c>
       <c r="C48" s="2">
-        <v>0.78819444444444453</v>
+        <v>0.6430555555555556</v>
       </c>
       <c r="D48" t="s">
         <v>7</v>
@@ -17600,53 +17618,53 @@
         <v>3</v>
       </c>
       <c r="G48" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H48" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="I48">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="B49" s="1">
-        <v>45530</v>
+        <v>45540</v>
       </c>
       <c r="C49" s="2">
-        <v>0.65208333333333335</v>
+        <v>0.45416666666666666</v>
       </c>
       <c r="D49" t="s">
         <v>7</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H49" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="I49">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B50" s="1">
-        <v>45530</v>
+        <v>45561</v>
       </c>
       <c r="C50" s="2">
-        <v>0.63263888888888886</v>
+        <v>0.18680555555555556</v>
       </c>
       <c r="D50" t="s">
         <v>7</v>
@@ -17655,56 +17673,56 @@
         <v>2</v>
       </c>
       <c r="F50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G50" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H50" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="I50">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B51" s="1">
-        <v>45530</v>
+        <v>45565</v>
       </c>
       <c r="C51" s="2">
-        <v>0.71458333333333324</v>
+        <v>0.56111111111111112</v>
       </c>
       <c r="D51" t="s">
         <v>7</v>
       </c>
       <c r="E51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F51">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G51" t="s">
         <v>53</v>
       </c>
       <c r="H51" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I51">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="B52" s="1">
-        <v>45530</v>
+        <v>45437</v>
       </c>
       <c r="C52" s="2">
-        <v>0.51597222222222217</v>
+        <v>0.57013888888888886</v>
       </c>
       <c r="D52" t="s">
         <v>7</v>
@@ -17713,27 +17731,27 @@
         <v>2</v>
       </c>
       <c r="F52">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H52" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="I52">
-        <v>93</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="B53" s="1">
-        <v>45530</v>
+        <v>45492</v>
       </c>
       <c r="C53" s="2">
-        <v>0.20208333333333331</v>
+        <v>12.52</v>
       </c>
       <c r="D53" t="s">
         <v>7</v>
@@ -17748,79 +17766,79 @@
         <v>44</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="I53">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="B54" s="1">
-        <v>45531</v>
+        <v>45529</v>
       </c>
       <c r="C54" s="2">
-        <v>0.7055555555555556</v>
+        <v>0.78819444444444453</v>
       </c>
       <c r="D54" t="s">
         <v>7</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G54" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H54" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="I54">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B55" s="1">
-        <v>45531</v>
+        <v>45438</v>
       </c>
       <c r="C55" s="2">
-        <v>0.76041666666666663</v>
+        <v>0.57152777777777775</v>
       </c>
       <c r="D55" t="s">
         <v>7</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="I55">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="B56" s="1">
-        <v>45531</v>
+        <v>45453</v>
       </c>
       <c r="C56" s="2">
-        <v>0.19583333333333333</v>
+        <v>0.54236111111111118</v>
       </c>
       <c r="D56" t="s">
         <v>7</v>
@@ -17829,56 +17847,56 @@
         <v>2</v>
       </c>
       <c r="F56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G56" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H56" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="I56">
-        <v>98</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="B57" s="1">
-        <v>45532</v>
+        <v>45557</v>
       </c>
       <c r="C57" s="2">
-        <v>0.90069444444444446</v>
+        <v>0.51527777777777783</v>
       </c>
       <c r="D57" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E57">
         <v>3</v>
       </c>
       <c r="F57">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G57" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H57" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="I57">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B58" s="1">
-        <v>45533</v>
+        <v>45484</v>
       </c>
       <c r="C58" s="2">
-        <v>0.34097222222222223</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="D58" t="s">
         <v>7</v>
@@ -17893,50 +17911,50 @@
         <v>53</v>
       </c>
       <c r="H58" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="I58">
-        <v>77</v>
+        <v>88</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B59" s="1">
-        <v>45534</v>
+        <v>45500</v>
       </c>
       <c r="C59" s="2">
-        <v>0.6777777777777777</v>
+        <v>0.67222222222222217</v>
       </c>
       <c r="D59" t="s">
         <v>7</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F59">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G59" t="s">
         <v>44</v>
       </c>
       <c r="H59" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I59">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="B60" s="1">
-        <v>45538</v>
+        <v>45521</v>
       </c>
       <c r="C60" s="2">
-        <v>0.62708333333333333</v>
+        <v>0.55208333333333337</v>
       </c>
       <c r="D60" t="s">
         <v>7</v>
@@ -17948,53 +17966,53 @@
         <v>3</v>
       </c>
       <c r="G60" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="I60">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
-        <v>45538</v>
+        <v>45540</v>
       </c>
       <c r="C61" s="2">
-        <v>7.7083333333333337E-2</v>
+        <v>0.66736111111111107</v>
       </c>
       <c r="D61" t="s">
         <v>7</v>
       </c>
       <c r="E61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F61">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G61" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H61" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="I61">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B62" s="1">
-        <v>45540</v>
+        <v>45530</v>
       </c>
       <c r="C62" s="2">
-        <v>0.45416666666666666</v>
+        <v>0.63263888888888886</v>
       </c>
       <c r="D62" t="s">
         <v>7</v>
@@ -18003,56 +18021,56 @@
         <v>2</v>
       </c>
       <c r="F62">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G62" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H62" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="I62">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B63" s="1">
-        <v>45540</v>
+        <v>45526</v>
       </c>
       <c r="C63" s="2">
-        <v>0.66736111111111107</v>
+        <v>0.60347222222222219</v>
       </c>
       <c r="D63" t="s">
         <v>7</v>
       </c>
       <c r="E63">
+        <v>2</v>
+      </c>
+      <c r="F63">
         <v>3</v>
       </c>
-      <c r="F63">
-        <v>5</v>
-      </c>
       <c r="G63" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H63" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="I63">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B64" s="1">
-        <v>45541</v>
+        <v>45530</v>
       </c>
       <c r="C64" s="2">
-        <v>0.52500000000000002</v>
+        <v>0.71458333333333324</v>
       </c>
       <c r="D64" t="s">
         <v>7</v>
@@ -18067,21 +18085,21 @@
         <v>53</v>
       </c>
       <c r="H64" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="I64">
-        <v>82</v>
+        <v>96</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="B65" s="1">
-        <v>45542</v>
+        <v>45541</v>
       </c>
       <c r="C65" s="2">
-        <v>0.62986111111111109</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="D65" t="s">
         <v>7</v>
@@ -18096,21 +18114,21 @@
         <v>53</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="I65">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="B66" s="1">
-        <v>45542</v>
+        <v>45568</v>
       </c>
       <c r="C66" s="2">
-        <v>0.70416666666666661</v>
+        <v>0.64444444444444449</v>
       </c>
       <c r="D66" t="s">
         <v>7</v>
@@ -18125,21 +18143,21 @@
         <v>53</v>
       </c>
       <c r="H66" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="I66">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="B67" s="1">
-        <v>45542</v>
+        <v>45569</v>
       </c>
       <c r="C67" s="2">
-        <v>0.17708333333333334</v>
+        <v>0.6479166666666667</v>
       </c>
       <c r="D67" t="s">
         <v>7</v>
@@ -18148,27 +18166,27 @@
         <v>2</v>
       </c>
       <c r="F67">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G67" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H67" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="I67">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="B68" s="1">
-        <v>45543</v>
+        <v>45572</v>
       </c>
       <c r="C68" s="2">
-        <v>0.5</v>
+        <v>0.61597222222222225</v>
       </c>
       <c r="D68" t="s">
         <v>7</v>
@@ -18183,21 +18201,21 @@
         <v>53</v>
       </c>
       <c r="H68" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="I68">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B69" s="1">
-        <v>45546</v>
+        <v>45577</v>
       </c>
       <c r="C69" s="2">
-        <v>0.4861111111111111</v>
+        <v>0.57361111111111118</v>
       </c>
       <c r="D69" t="s">
         <v>7</v>
@@ -18212,21 +18230,21 @@
         <v>44</v>
       </c>
       <c r="H69" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="I69">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="B70" s="1">
-        <v>45550</v>
+        <v>45498</v>
       </c>
       <c r="C70" s="2">
-        <v>0.11388888888888889</v>
+        <v>0.44375000000000003</v>
       </c>
       <c r="D70" t="s">
         <v>7</v>
@@ -18238,111 +18256,111 @@
         <v>4</v>
       </c>
       <c r="G70" t="s">
-        <v>44</v>
+        <v>179</v>
       </c>
       <c r="H70" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="I70">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="B71" s="1">
-        <v>45556</v>
+        <v>45512</v>
       </c>
       <c r="C71" s="2">
-        <v>0.40486111111111112</v>
+        <v>0.63750000000000007</v>
       </c>
       <c r="D71" t="s">
         <v>7</v>
       </c>
       <c r="E71">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F71">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G71" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H71" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="I71">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="B72" s="1">
-        <v>45561</v>
+        <v>45528</v>
       </c>
       <c r="C72" s="2">
-        <v>0.51250000000000007</v>
+        <v>0.57152777777777775</v>
       </c>
       <c r="D72" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F72">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G72" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H72" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="I72">
-        <v>78</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="B73" s="1">
-        <v>45561</v>
+        <v>45528</v>
       </c>
       <c r="C73" s="2">
-        <v>0.18680555555555556</v>
+        <v>0.57152777777777775</v>
       </c>
       <c r="D73" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F73">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G73" t="s">
         <v>44</v>
       </c>
       <c r="H73" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="I73">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="B74" s="1">
-        <v>45561</v>
+        <v>45518</v>
       </c>
       <c r="C74" s="2">
-        <v>0.25277777777777777</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D74" t="s">
         <v>7</v>
@@ -18357,7 +18375,7 @@
         <v>44</v>
       </c>
       <c r="H74" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I74">
         <v>78</v>
@@ -18365,158 +18383,158 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="B75" s="1">
-        <v>45565</v>
+        <v>45523</v>
       </c>
       <c r="C75" s="2">
-        <v>0.56111111111111112</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="D75" t="s">
         <v>7</v>
       </c>
       <c r="E75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F75">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G75" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="I75">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="B76" s="1">
-        <v>45565</v>
+        <v>45531</v>
       </c>
       <c r="C76" s="2">
-        <v>0.625</v>
+        <v>0.19583333333333333</v>
       </c>
       <c r="D76" t="s">
         <v>7</v>
       </c>
       <c r="E76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G76" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H76" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="I76">
-        <v>79</v>
+        <v>98</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="B77" s="1">
-        <v>45566</v>
+        <v>45538</v>
       </c>
       <c r="C77" s="2">
-        <v>0.58124999999999993</v>
+        <v>7.7083333333333337E-2</v>
       </c>
       <c r="D77" t="s">
         <v>7</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F77">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G77" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H77" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I77">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="B78" s="1">
-        <v>45566</v>
+        <v>45546</v>
       </c>
       <c r="C78" s="2">
-        <v>0.60347222222222219</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="D78" t="s">
         <v>7</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F78">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G78" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H78" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="I78">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="B79" s="1">
-        <v>45566</v>
+        <v>45571</v>
       </c>
       <c r="C79" s="2">
-        <v>0.59861111111111109</v>
+        <v>0.61249999999999993</v>
       </c>
       <c r="D79" t="s">
         <v>7</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F79">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G79" t="s">
         <v>44</v>
       </c>
       <c r="H79" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="I79">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="B80" s="1">
-        <v>45566</v>
+        <v>45575</v>
       </c>
       <c r="C80" s="2">
-        <v>0.51458333333333328</v>
+        <v>0.56597222222222221</v>
       </c>
       <c r="D80" t="s">
         <v>7</v>
@@ -18531,79 +18549,79 @@
         <v>44</v>
       </c>
       <c r="H80" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="I80">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="B81" s="1">
-        <v>45567</v>
+        <v>45577</v>
       </c>
       <c r="C81" s="2">
-        <v>0.4916666666666667</v>
+        <v>0.65347222222222223</v>
       </c>
       <c r="D81" t="s">
         <v>7</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G81" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H81" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="I81">
-        <v>68</v>
+        <v>87</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="B82" s="1">
-        <v>45567</v>
+        <v>45578</v>
       </c>
       <c r="C82" s="2">
-        <v>0.6118055555555556</v>
+        <v>0.58819444444444446</v>
       </c>
       <c r="D82" t="s">
         <v>7</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G82" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H82" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="I82">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="B83" s="1">
-        <v>45568</v>
+        <v>45582</v>
       </c>
       <c r="C83" s="2">
-        <v>0.64444444444444449</v>
+        <v>0.50486111111111109</v>
       </c>
       <c r="D83" t="s">
         <v>7</v>
@@ -18612,16 +18630,16 @@
         <v>2</v>
       </c>
       <c r="F83">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G83" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H83" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="I83">
-        <v>81</v>
+        <v>62</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.35">
@@ -18655,289 +18673,289 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="B85" s="1">
-        <v>45569</v>
+        <v>45525</v>
       </c>
       <c r="C85" s="2">
-        <v>0.50902777777777775</v>
+        <v>0.54513888888888895</v>
       </c>
       <c r="D85" t="s">
         <v>7</v>
       </c>
       <c r="E85">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F85">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G85" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H85" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="I85">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="B86" s="1">
-        <v>45569</v>
+        <v>45532</v>
       </c>
       <c r="C86" s="2">
-        <v>0.6479166666666667</v>
+        <v>0.61527777777777781</v>
       </c>
       <c r="D86" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E86">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F86">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G86" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H86" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="I86">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="B87" s="1">
-        <v>45570</v>
+        <v>45535</v>
       </c>
       <c r="C87" s="2">
-        <v>0.66736111111111107</v>
+        <v>0.84791666666666676</v>
       </c>
       <c r="D87" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F87">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G87" t="s">
         <v>44</v>
       </c>
       <c r="H87" t="s">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="I87">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="B88" s="1">
-        <v>45571</v>
+        <v>45542</v>
       </c>
       <c r="C88" s="2">
-        <v>0.59027777777777779</v>
+        <v>0.50277777777777777</v>
       </c>
       <c r="D88" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F88">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G88" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H88" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="I88">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="B89" s="1">
-        <v>45571</v>
+        <v>45555</v>
       </c>
       <c r="C89" s="2">
-        <v>0.61249999999999993</v>
+        <v>0.51250000000000007</v>
       </c>
       <c r="D89" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E89">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F89">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G89" t="s">
         <v>44</v>
       </c>
       <c r="H89" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="I89">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
+        <v>97</v>
+      </c>
+      <c r="B90" s="1">
+        <v>45558</v>
+      </c>
+      <c r="C90" s="2">
+        <v>0.54236111111111118</v>
+      </c>
+      <c r="D90" t="s">
+        <v>5</v>
+      </c>
+      <c r="E90">
+        <v>3</v>
+      </c>
+      <c r="F90">
+        <v>6</v>
+      </c>
+      <c r="G90" t="s">
+        <v>44</v>
+      </c>
+      <c r="H90" t="s">
+        <v>37</v>
+      </c>
+      <c r="I90">
         <v>70</v>
-      </c>
-      <c r="B90" s="1">
-        <v>45572</v>
-      </c>
-      <c r="C90" s="2">
-        <v>0.61597222222222225</v>
-      </c>
-      <c r="D90" t="s">
-        <v>7</v>
-      </c>
-      <c r="E90">
-        <v>2</v>
-      </c>
-      <c r="F90">
-        <v>3</v>
-      </c>
-      <c r="G90" t="s">
-        <v>53</v>
-      </c>
-      <c r="H90" t="s">
-        <v>27</v>
-      </c>
-      <c r="I90">
-        <v>72</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="B91" s="1">
-        <v>45575</v>
+        <v>45414</v>
       </c>
       <c r="C91" s="2">
-        <v>0.56597222222222221</v>
+        <v>0.61597222222222225</v>
       </c>
       <c r="D91" t="s">
-        <v>7</v>
+        <v>98</v>
       </c>
       <c r="E91">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F91">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G91" t="s">
         <v>44</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="I91">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="B92" s="1">
-        <v>45576</v>
+        <v>45528</v>
       </c>
       <c r="C92" s="2">
-        <v>0.58819444444444446</v>
+        <v>0.53888888888888886</v>
       </c>
       <c r="D92" t="s">
-        <v>7</v>
+        <v>98</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F92">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G92" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="H92" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="I92">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="B93" s="1">
-        <v>45576</v>
+        <v>45537</v>
       </c>
       <c r="C93" s="2">
-        <v>0.65763888888888888</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="D93" t="s">
-        <v>7</v>
+        <v>98</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F93">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G93" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H93" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="I93">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="B94" s="1">
-        <v>45577</v>
+        <v>45522</v>
       </c>
       <c r="C94" s="2">
-        <v>0.52152777777777781</v>
+        <v>0.70763888888888893</v>
       </c>
       <c r="D94" t="s">
-        <v>7</v>
+        <v>98</v>
       </c>
       <c r="E94">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F94">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G94" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="H94" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="I94">
         <v>84</v>
@@ -18945,103 +18963,103 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="B95" s="1">
-        <v>45577</v>
+        <v>45537</v>
       </c>
       <c r="C95" s="2">
-        <v>0.57361111111111118</v>
+        <v>0.50208333333333333</v>
       </c>
       <c r="D95" t="s">
-        <v>7</v>
+        <v>98</v>
       </c>
       <c r="E95">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F95">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G95" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H95" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="I95">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="B96" s="1">
-        <v>45577</v>
+        <v>45529</v>
       </c>
       <c r="C96" s="2">
-        <v>0.65347222222222223</v>
+        <v>0.40208333333333335</v>
       </c>
       <c r="D96" t="s">
-        <v>7</v>
+        <v>98</v>
       </c>
       <c r="E96">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F96">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G96" t="s">
         <v>44</v>
       </c>
       <c r="H96" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I96">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="B97" s="1">
-        <v>45578</v>
+        <v>45539</v>
       </c>
       <c r="C97" s="2">
-        <v>0.54791666666666672</v>
+        <v>0.58611111111111114</v>
       </c>
       <c r="D97" t="s">
-        <v>7</v>
+        <v>98</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F97">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G97" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H97" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="I97">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="B98" s="1">
-        <v>45578</v>
+        <v>45512</v>
       </c>
       <c r="C98" s="2">
-        <v>0.56527777777777777</v>
+        <v>0.44097222222222227</v>
       </c>
       <c r="D98" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -19053,108 +19071,108 @@
         <v>43</v>
       </c>
       <c r="H98" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="I98">
-        <v>77</v>
+        <v>90</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="B99" s="1">
-        <v>45578</v>
+        <v>45515</v>
       </c>
       <c r="C99" s="2">
-        <v>0.58819444444444446</v>
+        <v>0.68194444444444446</v>
       </c>
       <c r="D99" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F99">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G99" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H99" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I99">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B100" s="1">
-        <v>45582</v>
+        <v>45528</v>
       </c>
       <c r="C100" s="2">
-        <v>0.54236111111111118</v>
+        <v>0.58263888888888882</v>
       </c>
       <c r="D100" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F100">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G100" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H100" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="I100">
-        <v>64</v>
+        <v>91</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="B101" s="1">
-        <v>45582</v>
+        <v>45561</v>
       </c>
       <c r="C101" s="2">
-        <v>0.50486111111111109</v>
+        <v>0.6069444444444444</v>
       </c>
       <c r="D101" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E101">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F101">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G101" t="s">
         <v>44</v>
       </c>
       <c r="H101" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="I101">
-        <v>62</v>
+        <v>80</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="B102" s="1">
-        <v>45585</v>
+        <v>45465</v>
       </c>
       <c r="C102" s="2">
-        <v>0.65763888888888888</v>
+        <v>0.54305555555555551</v>
       </c>
       <c r="D102" t="s">
         <v>7</v>
@@ -19169,10 +19187,10 @@
         <v>43</v>
       </c>
       <c r="H102" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="I102">
-        <v>76</v>
+        <v>91</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.35">
@@ -19180,28 +19198,28 @@
         <v>10</v>
       </c>
       <c r="B103" s="1">
-        <v>45594</v>
+        <v>45521</v>
       </c>
       <c r="C103" s="2">
-        <v>0.59305555555555556</v>
+        <v>0.65069444444444446</v>
       </c>
       <c r="D103" t="s">
         <v>7</v>
       </c>
       <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103">
         <v>2</v>
       </c>
-      <c r="F103">
-        <v>3</v>
-      </c>
       <c r="G103" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H103" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="I103">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.35">
@@ -19209,86 +19227,86 @@
         <v>10</v>
       </c>
       <c r="B104" s="1">
-        <v>45523</v>
+        <v>45542</v>
       </c>
       <c r="C104" s="2">
-        <v>0.55486111111111114</v>
+        <v>0.62986111111111109</v>
       </c>
       <c r="D104" t="s">
         <v>7</v>
       </c>
       <c r="E104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F104">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G104" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H104" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="I104">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B105" s="1">
-        <v>45525</v>
+        <v>45556</v>
       </c>
       <c r="C105" s="2">
-        <v>0.67847222222222225</v>
+        <v>0.40486111111111112</v>
       </c>
       <c r="D105" t="s">
         <v>7</v>
       </c>
       <c r="E105">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F105">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G105" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H105" t="s">
         <v>19</v>
       </c>
       <c r="I105">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="B106" s="1">
-        <v>45414</v>
+        <v>45561</v>
       </c>
       <c r="C106" s="2">
-        <v>0.61597222222222225</v>
+        <v>0.25277777777777777</v>
       </c>
       <c r="D106" t="s">
-        <v>98</v>
+        <v>7</v>
       </c>
       <c r="E106">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F106">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G106" t="s">
         <v>44</v>
       </c>
       <c r="H106" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="I106">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.35">
@@ -19296,184 +19314,184 @@
         <v>10</v>
       </c>
       <c r="B107" s="1">
-        <v>45430</v>
+        <v>45566</v>
       </c>
       <c r="C107" s="2">
-        <v>0.51666666666666672</v>
+        <v>0.60347222222222219</v>
       </c>
       <c r="D107" t="s">
-        <v>98</v>
+        <v>7</v>
       </c>
       <c r="E107">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F107">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G107" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H107" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I107">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="B108" s="1">
-        <v>45522</v>
+        <v>45569</v>
       </c>
       <c r="C108" s="2">
-        <v>0.70763888888888893</v>
+        <v>0.50902777777777775</v>
       </c>
       <c r="D108" t="s">
-        <v>98</v>
+        <v>7</v>
       </c>
       <c r="E108">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F108">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G108" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="H108" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="I108">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="B109" s="1">
-        <v>45528</v>
+        <v>45576</v>
       </c>
       <c r="C109" s="2">
-        <v>0.53888888888888886</v>
+        <v>0.58819444444444446</v>
       </c>
       <c r="D109" t="s">
-        <v>98</v>
+        <v>7</v>
       </c>
       <c r="E109">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F109">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G109" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="H109" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="I109">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="B110" s="1">
-        <v>45529</v>
+        <v>45577</v>
       </c>
       <c r="C110" s="2">
-        <v>0.40208333333333335</v>
+        <v>0.52152777777777781</v>
       </c>
       <c r="D110" t="s">
-        <v>98</v>
+        <v>7</v>
       </c>
       <c r="E110">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F110">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G110" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H110" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="I110">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="B111" s="1">
-        <v>45537</v>
+        <v>45594</v>
       </c>
       <c r="C111" s="2">
-        <v>0.61111111111111105</v>
+        <v>0.59305555555555556</v>
       </c>
       <c r="D111" t="s">
-        <v>98</v>
+        <v>7</v>
       </c>
       <c r="E111">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F111">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G111" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H111" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="I111">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="B112" s="1">
-        <v>45537</v>
+        <v>45523</v>
       </c>
       <c r="C112" s="2">
-        <v>0.50208333333333333</v>
+        <v>0.55486111111111114</v>
       </c>
       <c r="D112" t="s">
-        <v>98</v>
+        <v>7</v>
       </c>
       <c r="E112">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F112">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G112" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H112" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I112">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="B113" s="1">
-        <v>45539</v>
+        <v>45430</v>
       </c>
       <c r="C113" s="2">
-        <v>0.58611111111111114</v>
+        <v>0.51666666666666672</v>
       </c>
       <c r="D113" t="s">
         <v>98</v>
@@ -19488,21 +19506,21 @@
         <v>44</v>
       </c>
       <c r="H113" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I113">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="B114" s="1">
-        <v>45410</v>
+        <v>45456</v>
       </c>
       <c r="C114" s="2">
-        <v>0.65694444444444444</v>
+        <v>0.48333333333333334</v>
       </c>
       <c r="D114" s="5" t="s">
         <v>138</v>
@@ -19517,50 +19535,50 @@
         <v>44</v>
       </c>
       <c r="H114" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="I114">
-        <v>76</v>
+        <v>88</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>153</v>
+        <v>10</v>
       </c>
       <c r="B115" s="1">
-        <v>45414</v>
+        <v>45457</v>
       </c>
       <c r="C115" s="2">
-        <v>0.47638888888888892</v>
+        <v>0.39930555555555558</v>
       </c>
       <c r="D115" s="5" t="s">
         <v>138</v>
       </c>
       <c r="E115">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F115">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G115" t="s">
         <v>53</v>
       </c>
       <c r="H115" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="I115">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="B116" s="1">
-        <v>45436</v>
+        <v>45472</v>
       </c>
       <c r="C116" s="2">
-        <v>0.66111111111111109</v>
+        <v>0.6381944444444444</v>
       </c>
       <c r="D116" s="5" t="s">
         <v>138</v>
@@ -19575,21 +19593,21 @@
         <v>53</v>
       </c>
       <c r="H116" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="I116">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="B117" s="1">
-        <v>45450</v>
+        <v>45508</v>
       </c>
       <c r="C117" s="2">
-        <v>0.48333333333333334</v>
+        <v>0.71736111111111101</v>
       </c>
       <c r="D117" s="5" t="s">
         <v>138</v>
@@ -19598,74 +19616,74 @@
         <v>9</v>
       </c>
       <c r="F117">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G117" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H117" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="I117">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="B118" s="1">
-        <v>45452</v>
+        <v>45518</v>
       </c>
       <c r="C118" s="2">
-        <v>0.71597222222222223</v>
+        <v>0.6118055555555556</v>
       </c>
       <c r="D118" s="5" t="s">
         <v>138</v>
       </c>
       <c r="E118">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F118">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G118" t="s">
         <v>44</v>
       </c>
       <c r="H118" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="I118">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>156</v>
+        <v>10</v>
       </c>
       <c r="B119" s="1">
-        <v>45456</v>
+        <v>45518</v>
       </c>
       <c r="C119" s="2">
-        <v>0.4236111111111111</v>
+        <v>0.69027777777777777</v>
       </c>
       <c r="D119" s="5" t="s">
         <v>138</v>
       </c>
       <c r="E119">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F119">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G119" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H119" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="I119">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.35">
@@ -19673,10 +19691,10 @@
         <v>10</v>
       </c>
       <c r="B120" s="1">
-        <v>45456</v>
+        <v>45523</v>
       </c>
       <c r="C120" s="2">
-        <v>0.48333333333333334</v>
+        <v>0.56944444444444442</v>
       </c>
       <c r="D120" s="5" t="s">
         <v>138</v>
@@ -19685,16 +19703,16 @@
         <v>9</v>
       </c>
       <c r="F120">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G120" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H120" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="I120">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.35">
@@ -19702,57 +19720,57 @@
         <v>10</v>
       </c>
       <c r="B121" s="1">
-        <v>45457</v>
+        <v>45529</v>
       </c>
       <c r="C121" s="2">
-        <v>0.39930555555555558</v>
+        <v>0.58958333333333335</v>
       </c>
       <c r="D121" s="5" t="s">
         <v>138</v>
       </c>
       <c r="E121">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F121">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G121" t="s">
         <v>53</v>
       </c>
       <c r="H121" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="I121">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>144</v>
+        <v>10</v>
       </c>
       <c r="B122" s="1">
-        <v>45467</v>
+        <v>45533</v>
       </c>
       <c r="C122" s="2">
-        <v>0.39999999999999997</v>
+        <v>0.69097222222222221</v>
       </c>
       <c r="D122" s="5" t="s">
         <v>138</v>
       </c>
       <c r="E122">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F122">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G122" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H122" t="s">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="I122">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.35">
@@ -19760,184 +19778,184 @@
         <v>10</v>
       </c>
       <c r="B123" s="1">
-        <v>45472</v>
+        <v>45542</v>
       </c>
       <c r="C123" s="2">
-        <v>0.6381944444444444</v>
+        <v>0.56111111111111112</v>
       </c>
       <c r="D123" s="5" t="s">
         <v>138</v>
       </c>
       <c r="E123">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F123">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G123" t="s">
         <v>53</v>
       </c>
       <c r="H123" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="I123">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="B124" s="1">
-        <v>45480</v>
+        <v>45577</v>
       </c>
       <c r="C124" s="2">
-        <v>0.47152777777777777</v>
+        <v>0.66736111111111107</v>
       </c>
       <c r="D124" s="5" t="s">
         <v>138</v>
       </c>
       <c r="E124">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F124">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G124" t="s">
         <v>53</v>
       </c>
       <c r="H124" t="s">
-        <v>141</v>
+        <v>47</v>
       </c>
       <c r="I124">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="B125" s="1">
-        <v>45480</v>
+        <v>45513</v>
       </c>
       <c r="C125" s="2">
-        <v>0.4375</v>
+        <v>0.64166666666666672</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="E125">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F125">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G125" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="H125" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="I125">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="B126" s="1">
-        <v>45480</v>
+        <v>45436</v>
       </c>
       <c r="C126" s="2">
-        <v>0.4465277777777778</v>
+        <v>0.66111111111111109</v>
       </c>
       <c r="D126" s="5" t="s">
         <v>138</v>
       </c>
       <c r="E126">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F126">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G126" t="s">
         <v>53</v>
       </c>
       <c r="H126" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="I126">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="B127" s="1">
-        <v>45484</v>
+        <v>45480</v>
       </c>
       <c r="C127" s="2">
-        <v>0.65902777777777777</v>
+        <v>0.47152777777777777</v>
       </c>
       <c r="D127" s="5" t="s">
         <v>138</v>
       </c>
       <c r="E127">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F127">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G127" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H127" t="s">
-        <v>56</v>
+        <v>141</v>
       </c>
       <c r="I127">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="B128" s="1">
-        <v>45487</v>
+        <v>45499</v>
       </c>
       <c r="C128" s="2">
-        <v>0.4381944444444445</v>
+        <v>0.54027777777777775</v>
       </c>
       <c r="D128" s="5" t="s">
         <v>138</v>
       </c>
       <c r="E128">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F128">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G128" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H128" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I128">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B129" s="1">
-        <v>45499</v>
+        <v>45506</v>
       </c>
       <c r="C129" s="2">
-        <v>0.54027777777777775</v>
+        <v>0.62916666666666665</v>
       </c>
       <c r="D129" s="5" t="s">
         <v>138</v>
@@ -19955,47 +19973,47 @@
         <v>61</v>
       </c>
       <c r="I129">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="B130" s="1">
-        <v>45499</v>
+        <v>45467</v>
       </c>
       <c r="C130" s="2">
-        <v>0.61527777777777781</v>
+        <v>0.39999999999999997</v>
       </c>
       <c r="D130" s="5" t="s">
         <v>138</v>
       </c>
       <c r="E130">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F130">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G130" t="s">
         <v>44</v>
       </c>
       <c r="H130" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="I130">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B131" s="1">
-        <v>45506</v>
+        <v>45512</v>
       </c>
       <c r="C131" s="2">
-        <v>0.62916666666666665</v>
+        <v>0.62291666666666667</v>
       </c>
       <c r="D131" s="5" t="s">
         <v>138</v>
@@ -20013,18 +20031,18 @@
         <v>61</v>
       </c>
       <c r="I131">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="B132" s="1">
-        <v>45508</v>
+        <v>45452</v>
       </c>
       <c r="C132" s="2">
-        <v>0.71736111111111101</v>
+        <v>0.71597222222222223</v>
       </c>
       <c r="D132" s="5" t="s">
         <v>138</v>
@@ -20033,114 +20051,114 @@
         <v>9</v>
       </c>
       <c r="F132">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G132" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H132" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="I132">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="B133" s="1">
-        <v>45508</v>
+        <v>45521</v>
       </c>
       <c r="C133" s="2">
-        <v>0.68402777777777779</v>
+        <v>0.52847222222222223</v>
       </c>
       <c r="D133" s="5" t="s">
         <v>138</v>
       </c>
       <c r="E133">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F133">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G133" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H133" t="s">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="I133">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="B134" s="1">
-        <v>45509</v>
+        <v>45521</v>
       </c>
       <c r="C134" s="2">
-        <v>0.57777777777777783</v>
+        <v>0.64861111111111114</v>
       </c>
       <c r="D134" s="5" t="s">
         <v>138</v>
       </c>
       <c r="E134">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F134">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G134" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H134" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="I134">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="B135" s="1">
-        <v>45509</v>
+        <v>45541</v>
       </c>
       <c r="C135" s="2">
-        <v>0.61249999999999993</v>
+        <v>0.60902777777777783</v>
       </c>
       <c r="D135" s="5" t="s">
         <v>138</v>
       </c>
       <c r="E135">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F135">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G135" t="s">
         <v>53</v>
       </c>
       <c r="H135" t="s">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="I135">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B136" s="1">
-        <v>45512</v>
+        <v>45573</v>
       </c>
       <c r="C136" s="2">
-        <v>0.62291666666666667</v>
+        <v>0.56180555555555556</v>
       </c>
       <c r="D136" s="5" t="s">
         <v>138</v>
@@ -20155,108 +20173,108 @@
         <v>53</v>
       </c>
       <c r="H136" t="s">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="I136">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B137" s="1">
-        <v>45512</v>
+        <v>45529</v>
       </c>
       <c r="C137" s="2">
-        <v>0.49305555555555558</v>
+        <v>0.60972222222222217</v>
       </c>
       <c r="D137" s="5" t="s">
         <v>138</v>
       </c>
       <c r="E137">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F137">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G137" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H137" t="s">
-        <v>29</v>
+        <v>141</v>
       </c>
       <c r="I137">
-        <v>82</v>
+        <v>93</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B138" s="1">
-        <v>45512</v>
+        <v>45566</v>
       </c>
       <c r="C138" s="2">
-        <v>0.50624999999999998</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="D138" s="5" t="s">
         <v>138</v>
       </c>
       <c r="E138">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F138">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G138" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H138" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="I138">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B139" s="1">
-        <v>45512</v>
+        <v>45571</v>
       </c>
       <c r="C139" s="2">
-        <v>0.53819444444444442</v>
+        <v>0.65416666666666667</v>
       </c>
       <c r="D139" s="5" t="s">
         <v>138</v>
       </c>
       <c r="E139">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F139">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G139" t="s">
         <v>44</v>
       </c>
       <c r="H139" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I139">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B140" s="1">
-        <v>45513</v>
+        <v>45414</v>
       </c>
       <c r="C140" s="2">
-        <v>0.56666666666666665</v>
+        <v>0.47638888888888892</v>
       </c>
       <c r="D140" s="5" t="s">
         <v>138</v>
@@ -20271,10 +20289,10 @@
         <v>53</v>
       </c>
       <c r="H140" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="I140">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.35">
@@ -20282,10 +20300,10 @@
         <v>154</v>
       </c>
       <c r="B141" s="1">
-        <v>45513</v>
+        <v>45512</v>
       </c>
       <c r="C141" s="2">
-        <v>0.50138888888888888</v>
+        <v>0.49305555555555558</v>
       </c>
       <c r="D141" s="5" t="s">
         <v>138</v>
@@ -20294,219 +20312,219 @@
         <v>9</v>
       </c>
       <c r="F141">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G141" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H141" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="I141">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="B142" s="1">
-        <v>45517</v>
+        <v>45513</v>
       </c>
       <c r="C142" s="2">
-        <v>0.6118055555555556</v>
+        <v>0.50138888888888888</v>
       </c>
       <c r="D142" s="5" t="s">
         <v>138</v>
       </c>
       <c r="E142">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F142">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G142" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H142" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="I142">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="B143" s="1">
-        <v>45518</v>
+        <v>45527</v>
       </c>
       <c r="C143" s="2">
-        <v>0.6118055555555556</v>
+        <v>0.51597222222222217</v>
       </c>
       <c r="D143" s="5" t="s">
         <v>138</v>
       </c>
       <c r="E143">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F143">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G143" t="s">
         <v>44</v>
       </c>
       <c r="H143" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="I143">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="B144" s="1">
-        <v>45518</v>
+        <v>45512</v>
       </c>
       <c r="C144" s="2">
-        <v>0.69027777777777777</v>
+        <v>0.50624999999999998</v>
       </c>
       <c r="D144" s="5" t="s">
         <v>138</v>
       </c>
       <c r="E144">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F144">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G144" t="s">
         <v>53</v>
       </c>
       <c r="H144" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I144">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="B145" s="1">
-        <v>45520</v>
+        <v>45512</v>
       </c>
       <c r="C145" s="2">
-        <v>0.61249999999999993</v>
+        <v>0.53819444444444442</v>
       </c>
       <c r="D145" s="5" t="s">
         <v>138</v>
       </c>
       <c r="E145">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F145">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G145" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H145" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I145">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="B146" s="1">
-        <v>45521</v>
+        <v>45456</v>
       </c>
       <c r="C146" s="2">
-        <v>0.52847222222222223</v>
+        <v>0.4236111111111111</v>
       </c>
       <c r="D146" s="5" t="s">
         <v>138</v>
       </c>
       <c r="E146">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F146">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G146" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H146" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="I146">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="B147" s="1">
-        <v>45521</v>
+        <v>45513</v>
       </c>
       <c r="C147" s="2">
-        <v>0.64861111111111114</v>
+        <v>0.56666666666666665</v>
       </c>
       <c r="D147" s="5" t="s">
         <v>138</v>
       </c>
       <c r="E147">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F147">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G147" t="s">
         <v>53</v>
       </c>
       <c r="H147" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="I147">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B148" s="1">
-        <v>45522</v>
+        <v>45499</v>
       </c>
       <c r="C148" s="2">
-        <v>0.59513888888888888</v>
+        <v>0.61527777777777781</v>
       </c>
       <c r="D148" s="5" t="s">
         <v>138</v>
       </c>
       <c r="E148">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F148">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G148" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H148" t="s">
         <v>16</v>
       </c>
       <c r="I148">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.35">
@@ -20514,10 +20532,10 @@
         <v>157</v>
       </c>
       <c r="B149" s="1">
-        <v>45523</v>
+        <v>45508</v>
       </c>
       <c r="C149" s="2">
-        <v>0.55069444444444449</v>
+        <v>0.68402777777777779</v>
       </c>
       <c r="D149" s="5" t="s">
         <v>138</v>
@@ -20526,27 +20544,27 @@
         <v>9</v>
       </c>
       <c r="F149">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G149" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H149" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="I149">
-        <v>82</v>
+        <v>93</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="B150" s="1">
         <v>45523</v>
       </c>
       <c r="C150" s="2">
-        <v>0.56944444444444442</v>
+        <v>0.55069444444444449</v>
       </c>
       <c r="D150" s="5" t="s">
         <v>138</v>
@@ -20561,7 +20579,7 @@
         <v>53</v>
       </c>
       <c r="H150" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="I150">
         <v>82</v>
@@ -20598,13 +20616,13 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B152" s="1">
-        <v>45527</v>
+        <v>45530</v>
       </c>
       <c r="C152" s="2">
-        <v>0.51597222222222217</v>
+        <v>0.49444444444444446</v>
       </c>
       <c r="D152" s="5" t="s">
         <v>138</v>
@@ -20613,27 +20631,27 @@
         <v>9</v>
       </c>
       <c r="F152">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G152" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H152" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="I152">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B153" s="1">
-        <v>45527</v>
+        <v>45549</v>
       </c>
       <c r="C153" s="2">
-        <v>0.59861111111111109</v>
+        <v>0.67152777777777783</v>
       </c>
       <c r="D153" s="5" t="s">
         <v>138</v>
@@ -20642,85 +20660,85 @@
         <v>9</v>
       </c>
       <c r="F153">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G153" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H153" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="I153">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="B154" s="1">
-        <v>45529</v>
+        <v>45410</v>
       </c>
       <c r="C154" s="2">
-        <v>0.58958333333333335</v>
+        <v>0.65694444444444444</v>
       </c>
       <c r="D154" s="5" t="s">
         <v>138</v>
       </c>
       <c r="E154">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F154">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G154" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H154" t="s">
         <v>75</v>
       </c>
       <c r="I154">
-        <v>93</v>
+        <v>76</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="B155" s="1">
-        <v>45529</v>
+        <v>45450</v>
       </c>
       <c r="C155" s="2">
-        <v>0.60972222222222217</v>
+        <v>0.48333333333333334</v>
       </c>
       <c r="D155" s="5" t="s">
         <v>138</v>
       </c>
       <c r="E155">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F155">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G155" t="s">
         <v>44</v>
       </c>
       <c r="H155" t="s">
-        <v>141</v>
+        <v>56</v>
       </c>
       <c r="I155">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B156" s="1">
-        <v>45530</v>
+        <v>45480</v>
       </c>
       <c r="C156" s="2">
-        <v>0.49444444444444446</v>
+        <v>0.4375</v>
       </c>
       <c r="D156" s="5" t="s">
         <v>138</v>
@@ -20729,27 +20747,27 @@
         <v>9</v>
       </c>
       <c r="F156">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G156" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H156" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="I156">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="B157" s="1">
-        <v>45533</v>
+        <v>45509</v>
       </c>
       <c r="C157" s="2">
-        <v>0.69097222222222221</v>
+        <v>0.57777777777777783</v>
       </c>
       <c r="D157" s="5" t="s">
         <v>138</v>
@@ -20758,13 +20776,13 @@
         <v>9</v>
       </c>
       <c r="F157">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G157" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H157" t="s">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="I157">
         <v>93</v>
@@ -20772,13 +20790,13 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B158" s="1">
-        <v>45539</v>
+        <v>45487</v>
       </c>
       <c r="C158" s="2">
-        <v>0.69305555555555554</v>
+        <v>0.4381944444444445</v>
       </c>
       <c r="D158" s="5" t="s">
         <v>138</v>
@@ -20787,56 +20805,56 @@
         <v>10</v>
       </c>
       <c r="F158">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G158" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H158" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I158">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="B159" s="1">
-        <v>45541</v>
+        <v>45527</v>
       </c>
       <c r="C159" s="2">
-        <v>0.60902777777777783</v>
+        <v>0.59861111111111109</v>
       </c>
       <c r="D159" s="5" t="s">
         <v>138</v>
       </c>
       <c r="E159">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F159">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G159" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H159" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="I159">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="B160" s="1">
-        <v>45542</v>
+        <v>45554</v>
       </c>
       <c r="C160" s="2">
-        <v>0.56111111111111112</v>
+        <v>0.63402777777777775</v>
       </c>
       <c r="D160" s="5" t="s">
         <v>138</v>
@@ -20845,56 +20863,56 @@
         <v>9</v>
       </c>
       <c r="F160">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G160" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H160" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="I160">
-        <v>73</v>
+        <v>89</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="B161" s="1">
-        <v>45549</v>
+        <v>45480</v>
       </c>
       <c r="C161" s="2">
-        <v>0.67152777777777783</v>
+        <v>0.4465277777777778</v>
       </c>
       <c r="D161" s="5" t="s">
         <v>138</v>
       </c>
       <c r="E161">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F161">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G161" t="s">
         <v>53</v>
       </c>
       <c r="H161" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="I161">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B162" s="1">
-        <v>45553</v>
+        <v>45522</v>
       </c>
       <c r="C162" s="2">
-        <v>0.64861111111111114</v>
+        <v>0.59513888888888888</v>
       </c>
       <c r="D162" s="5" t="s">
         <v>138</v>
@@ -20909,50 +20927,50 @@
         <v>53</v>
       </c>
       <c r="H162" t="s">
-        <v>173</v>
+        <v>16</v>
       </c>
       <c r="I162">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B163" s="1">
-        <v>45554</v>
+        <v>45509</v>
       </c>
       <c r="C163" s="2">
-        <v>0.63402777777777775</v>
+        <v>0.61249999999999993</v>
       </c>
       <c r="D163" s="5" t="s">
         <v>138</v>
       </c>
       <c r="E163">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F163">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G163" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H163" t="s">
-        <v>9</v>
+        <v>125</v>
       </c>
       <c r="I163">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B164" s="1">
-        <v>45555</v>
+        <v>45517</v>
       </c>
       <c r="C164" s="2">
-        <v>0.4680555555555555</v>
+        <v>0.6118055555555556</v>
       </c>
       <c r="D164" s="5" t="s">
         <v>138</v>
@@ -20967,50 +20985,50 @@
         <v>53</v>
       </c>
       <c r="H164" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="I164">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="B165" s="1">
-        <v>45566</v>
+        <v>45520</v>
       </c>
       <c r="C165" s="2">
-        <v>0.63541666666666663</v>
+        <v>0.61249999999999993</v>
       </c>
       <c r="D165" s="5" t="s">
         <v>138</v>
       </c>
       <c r="E165">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F165">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G165" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H165" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="I165">
-        <v>76</v>
+        <v>92</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B166" s="1">
-        <v>45568</v>
+        <v>45539</v>
       </c>
       <c r="C166" s="2">
-        <v>0.51041666666666663</v>
+        <v>0.69305555555555554</v>
       </c>
       <c r="D166" s="5" t="s">
         <v>138</v>
@@ -21019,27 +21037,27 @@
         <v>10</v>
       </c>
       <c r="F166">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G166" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H166" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I166">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B167" s="1">
-        <v>45569</v>
+        <v>45553</v>
       </c>
       <c r="C167" s="2">
-        <v>0.50208333333333333</v>
+        <v>0.64861111111111114</v>
       </c>
       <c r="D167" s="5" t="s">
         <v>138</v>
@@ -21048,114 +21066,114 @@
         <v>10</v>
       </c>
       <c r="F167">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G167" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H167" t="s">
-        <v>51</v>
+        <v>173</v>
       </c>
       <c r="I167">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="B168" s="1">
-        <v>45571</v>
+        <v>45555</v>
       </c>
       <c r="C168" s="2">
-        <v>0.65416666666666667</v>
+        <v>0.4680555555555555</v>
       </c>
       <c r="D168" s="5" t="s">
         <v>138</v>
       </c>
       <c r="E168">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F168">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G168" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H168" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="I168">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="B169" s="1">
-        <v>45573</v>
+        <v>45568</v>
       </c>
       <c r="C169" s="2">
-        <v>0.56180555555555556</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="D169" s="5" t="s">
         <v>138</v>
       </c>
       <c r="E169">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F169">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G169" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H169" t="s">
-        <v>149</v>
+        <v>51</v>
       </c>
       <c r="I169">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>10</v>
+        <v>176</v>
       </c>
       <c r="B170" s="1">
-        <v>45577</v>
+        <v>45569</v>
       </c>
       <c r="C170" s="2">
-        <v>0.66736111111111107</v>
+        <v>0.50208333333333333</v>
       </c>
       <c r="D170" s="5" t="s">
         <v>138</v>
       </c>
       <c r="E170">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F170">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G170" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H170" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I170">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>128</v>
+        <v>177</v>
       </c>
       <c r="B171" s="1">
-        <v>45577</v>
+        <v>45595</v>
       </c>
       <c r="C171" s="2">
-        <v>0.71666666666666667</v>
+        <v>0.48749999999999999</v>
       </c>
       <c r="D171" s="5" t="s">
         <v>138</v>
@@ -21164,56 +21182,56 @@
         <v>10</v>
       </c>
       <c r="F171">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G171" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H171" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="I171">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>177</v>
+        <v>108</v>
       </c>
       <c r="B172" s="1">
-        <v>45595</v>
+        <v>45431</v>
       </c>
       <c r="C172" s="2">
-        <v>0.48749999999999999</v>
+        <v>0.54722222222222217</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="E172">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F172">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G172" t="s">
         <v>44</v>
       </c>
       <c r="H172" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="I172">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B173" s="1">
-        <v>45425</v>
+        <v>45480</v>
       </c>
       <c r="C173" s="2">
-        <v>0.46458333333333335</v>
+        <v>0.68611111111111101</v>
       </c>
       <c r="D173" s="5" t="s">
         <v>107</v>
@@ -21222,27 +21240,27 @@
         <v>6</v>
       </c>
       <c r="F173">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G173" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H173" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="I173">
-        <v>72</v>
+        <v>88</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B174" s="1">
-        <v>45431</v>
+        <v>45485</v>
       </c>
       <c r="C174" s="2">
-        <v>0.54722222222222217</v>
+        <v>0.63055555555555554</v>
       </c>
       <c r="D174" s="5" t="s">
         <v>107</v>
@@ -21257,21 +21275,21 @@
         <v>44</v>
       </c>
       <c r="H174" t="s">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="I174">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B175" s="1">
-        <v>45439</v>
+        <v>45485</v>
       </c>
       <c r="C175" s="2">
-        <v>0.61597222222222225</v>
+        <v>0.5625</v>
       </c>
       <c r="D175" s="5" t="s">
         <v>107</v>
@@ -21286,21 +21304,21 @@
         <v>53</v>
       </c>
       <c r="H175" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="I175">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B176" s="1">
-        <v>45440</v>
+        <v>45526</v>
       </c>
       <c r="C176" s="2">
-        <v>0.66111111111111109</v>
+        <v>0.50347222222222221</v>
       </c>
       <c r="D176" s="5" t="s">
         <v>107</v>
@@ -21309,27 +21327,27 @@
         <v>6</v>
       </c>
       <c r="F176">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G176" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H176" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="I176">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>116</v>
-      </c>
-      <c r="B177" s="4">
-        <v>45462</v>
+        <v>113</v>
+      </c>
+      <c r="B177" s="1">
+        <v>45561</v>
       </c>
       <c r="C177" s="2">
-        <v>0.35694444444444445</v>
+        <v>0.49583333333333335</v>
       </c>
       <c r="D177" s="5" t="s">
         <v>107</v>
@@ -21338,85 +21356,85 @@
         <v>6</v>
       </c>
       <c r="F177">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G177" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H177" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="I177">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="B178" s="1">
-        <v>45474</v>
+        <v>45566</v>
       </c>
       <c r="C178" s="2">
-        <v>0.43055555555555558</v>
+        <v>0.5708333333333333</v>
       </c>
       <c r="D178" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E178">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F178">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G178" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="H178" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="I178">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="B179" s="1">
-        <v>45475</v>
+        <v>45425</v>
       </c>
       <c r="C179" s="2">
-        <v>0.71111111111111114</v>
+        <v>0.46458333333333335</v>
       </c>
       <c r="D179" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E179">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F179">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G179" t="s">
-        <v>131</v>
+        <v>53</v>
       </c>
       <c r="H179" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="I179">
-        <v>91</v>
+        <v>72</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B180" s="1">
-        <v>45480</v>
+        <v>45439</v>
       </c>
       <c r="C180" s="2">
-        <v>0.68611111111111101</v>
+        <v>0.61597222222222225</v>
       </c>
       <c r="D180" s="5" t="s">
         <v>107</v>
@@ -21425,27 +21443,27 @@
         <v>6</v>
       </c>
       <c r="F180">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G180" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H180" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="I180">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B181" s="1">
-        <v>45485</v>
+        <v>45440</v>
       </c>
       <c r="C181" s="2">
-        <v>0.63055555555555554</v>
+        <v>0.66111111111111109</v>
       </c>
       <c r="D181" s="5" t="s">
         <v>107</v>
@@ -21454,27 +21472,27 @@
         <v>6</v>
       </c>
       <c r="F181">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G181" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H181" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="I181">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>111</v>
-      </c>
-      <c r="B182" s="1">
-        <v>45485</v>
+        <v>116</v>
+      </c>
+      <c r="B182" s="4">
+        <v>45462</v>
       </c>
       <c r="C182" s="2">
-        <v>0.5625</v>
+        <v>0.35694444444444445</v>
       </c>
       <c r="D182" s="5" t="s">
         <v>107</v>
@@ -21489,50 +21507,50 @@
         <v>53</v>
       </c>
       <c r="H182" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="I182">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="B183" s="1">
-        <v>45493</v>
+        <v>45495</v>
       </c>
       <c r="C183" s="2">
-        <v>0.55833333333333335</v>
+        <v>0.5625</v>
       </c>
       <c r="D183" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E183">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F183">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G183" t="s">
-        <v>131</v>
+        <v>53</v>
       </c>
       <c r="H183" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="I183">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B184" s="1">
-        <v>45495</v>
+        <v>45524</v>
       </c>
       <c r="C184" s="2">
-        <v>0.5625</v>
+        <v>0.51111111111111118</v>
       </c>
       <c r="D184" s="5" t="s">
         <v>107</v>
@@ -21547,79 +21565,79 @@
         <v>53</v>
       </c>
       <c r="H184" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="I184">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B185" s="1">
-        <v>45506</v>
+        <v>45537</v>
       </c>
       <c r="C185" s="2">
-        <v>0.65902777777777777</v>
+        <v>0.51458333333333328</v>
       </c>
       <c r="D185" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E185">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F185">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G185" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="H185" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="I185">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B186" s="1">
-        <v>45512</v>
+        <v>45546</v>
       </c>
       <c r="C186" s="2">
-        <v>0.58472222222222225</v>
+        <v>0.57222222222222219</v>
       </c>
       <c r="D186" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E186">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F186">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G186" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="H186" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="I186">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B187" s="1">
-        <v>45512</v>
+        <v>45506</v>
       </c>
       <c r="C187" s="2">
-        <v>0.62916666666666665</v>
+        <v>0.65902777777777777</v>
       </c>
       <c r="D187" s="5" t="s">
         <v>107</v>
@@ -21628,27 +21646,27 @@
         <v>7</v>
       </c>
       <c r="F187">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G187" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="H187" t="s">
         <v>37</v>
       </c>
       <c r="I187">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="B188" s="1">
-        <v>45513</v>
+        <v>45512</v>
       </c>
       <c r="C188" s="2">
-        <v>0.64166666666666672</v>
+        <v>0.58472222222222225</v>
       </c>
       <c r="D188" s="5" t="s">
         <v>107</v>
@@ -21663,10 +21681,10 @@
         <v>99</v>
       </c>
       <c r="H188" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I188">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.35">
@@ -21700,13 +21718,13 @@
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B190" s="1">
-        <v>45523</v>
+        <v>45525</v>
       </c>
       <c r="C190" s="2">
-        <v>0.51388888888888895</v>
+        <v>0.58958333333333335</v>
       </c>
       <c r="D190" s="5" t="s">
         <v>107</v>
@@ -21715,27 +21733,27 @@
         <v>7</v>
       </c>
       <c r="F190">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G190" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="H190" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I190">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="B191" s="1">
-        <v>45523</v>
+        <v>45539</v>
       </c>
       <c r="C191" s="2">
-        <v>0.50138888888888888</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="D191" s="5" t="s">
         <v>107</v>
@@ -21744,259 +21762,259 @@
         <v>7</v>
       </c>
       <c r="F191">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G191" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="H191" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="I191">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A192" t="s">
-        <v>118</v>
-      </c>
-      <c r="B192" s="1">
-        <v>45524</v>
-      </c>
-      <c r="C192" s="2">
-        <v>0.51111111111111118</v>
-      </c>
-      <c r="D192" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A192" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B192" s="11">
+        <v>45484</v>
+      </c>
+      <c r="C192" s="12">
+        <v>0.65902777777777777</v>
+      </c>
+      <c r="D192" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="E192" s="10">
+        <v>10</v>
+      </c>
+      <c r="F192" s="10">
+        <v>20</v>
+      </c>
+      <c r="G192" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H192" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I192" s="10">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A193" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B193" s="11">
+        <v>45564</v>
+      </c>
+      <c r="C193" s="12">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="D193" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="E192">
-        <v>6</v>
-      </c>
-      <c r="F192">
-        <v>12</v>
-      </c>
-      <c r="G192" t="s">
-        <v>53</v>
-      </c>
-      <c r="H192" t="s">
-        <v>76</v>
-      </c>
-      <c r="I192">
+      <c r="E193" s="10">
+        <v>7</v>
+      </c>
+      <c r="F193" s="10">
+        <v>13</v>
+      </c>
+      <c r="G193" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="H193" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I193" s="10">
         <v>78</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A193" t="s">
-        <v>123</v>
-      </c>
-      <c r="B193" s="1">
-        <v>45525</v>
-      </c>
-      <c r="C193" s="2">
-        <v>0.58958333333333335</v>
-      </c>
-      <c r="D193" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E193">
-        <v>7</v>
-      </c>
-      <c r="F193">
-        <v>13</v>
-      </c>
-      <c r="G193" t="s">
-        <v>99</v>
-      </c>
-      <c r="H193" t="s">
-        <v>27</v>
-      </c>
-      <c r="I193">
-        <v>73</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="B194" s="1">
-        <v>45526</v>
+        <v>45564</v>
       </c>
       <c r="C194" s="2">
-        <v>0.50347222222222221</v>
+        <v>0.58472222222222225</v>
       </c>
       <c r="D194" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E194">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F194">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G194" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="H194" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I194">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A195" t="s">
-        <v>118</v>
-      </c>
-      <c r="B195" s="1">
-        <v>45537</v>
-      </c>
-      <c r="C195" s="2">
-        <v>0.51458333333333328</v>
-      </c>
-      <c r="D195" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A195" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B195" s="11">
+        <v>45577</v>
+      </c>
+      <c r="C195" s="12">
+        <v>0.71666666666666667</v>
+      </c>
+      <c r="D195" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="E195" s="10">
+        <v>10</v>
+      </c>
+      <c r="F195" s="10">
+        <v>19</v>
+      </c>
+      <c r="G195" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H195" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I195" s="10">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A196" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B196" s="11">
+        <v>45565</v>
+      </c>
+      <c r="C196" s="12">
+        <v>0.5854166666666667</v>
+      </c>
+      <c r="D196" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="E195">
-        <v>6</v>
-      </c>
-      <c r="F195">
-        <v>12</v>
-      </c>
-      <c r="G195" t="s">
-        <v>53</v>
-      </c>
-      <c r="H195" t="s">
-        <v>76</v>
-      </c>
-      <c r="I195">
+      <c r="E196" s="10">
+        <v>7</v>
+      </c>
+      <c r="F196" s="10">
+        <v>13</v>
+      </c>
+      <c r="G196" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="H196" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I196" s="10">
         <v>78</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A196" t="s">
-        <v>124</v>
-      </c>
-      <c r="B196" s="1">
-        <v>45539</v>
-      </c>
-      <c r="C196" s="2">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="D196" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E196">
-        <v>7</v>
-      </c>
-      <c r="F196">
-        <v>13</v>
-      </c>
-      <c r="G196" t="s">
-        <v>99</v>
-      </c>
-      <c r="H196" t="s">
-        <v>125</v>
-      </c>
-      <c r="I196">
-        <v>84</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="B197" s="1">
-        <v>45546</v>
+        <v>45566</v>
       </c>
       <c r="C197" s="2">
-        <v>0.57222222222222219</v>
+        <v>0.51736111111111105</v>
       </c>
       <c r="D197" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E197">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F197">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G197" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="H197" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="I197">
-        <v>88</v>
+        <v>74</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B198" s="1">
-        <v>45561</v>
+        <v>45577</v>
       </c>
       <c r="C198" s="2">
-        <v>0.49583333333333335</v>
+        <v>0.50208333333333333</v>
       </c>
       <c r="D198" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E198">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F198">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G198" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="H198" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="I198">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A199" t="s">
-        <v>126</v>
-      </c>
-      <c r="B199" s="1">
-        <v>45564</v>
-      </c>
-      <c r="C199" s="2">
-        <v>0.55208333333333337</v>
-      </c>
-      <c r="D199" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A199" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B199" s="15">
+        <v>45493</v>
+      </c>
+      <c r="C199" s="16">
+        <v>0.55833333333333335</v>
+      </c>
+      <c r="D199" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="E199">
-        <v>7</v>
-      </c>
-      <c r="F199">
-        <v>13</v>
-      </c>
-      <c r="G199" t="s">
-        <v>99</v>
-      </c>
-      <c r="H199" t="s">
-        <v>51</v>
-      </c>
-      <c r="I199">
-        <v>78</v>
+      <c r="E199" s="14">
+        <v>7</v>
+      </c>
+      <c r="F199" s="14">
+        <v>14</v>
+      </c>
+      <c r="G199" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="H199" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="I199" s="14">
+        <v>80</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B200" s="1">
-        <v>45564</v>
+        <v>45475</v>
       </c>
       <c r="C200" s="2">
-        <v>0.58472222222222225</v>
+        <v>0.71111111111111114</v>
       </c>
       <c r="D200" s="5" t="s">
         <v>107</v>
@@ -22005,85 +22023,85 @@
         <v>7</v>
       </c>
       <c r="F200">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G200" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="H200" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="I200">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A201" t="s">
-        <v>128</v>
-      </c>
-      <c r="B201" s="1">
-        <v>45565</v>
-      </c>
-      <c r="C201" s="2">
-        <v>0.5854166666666667</v>
-      </c>
-      <c r="D201" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A201" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B201" s="15">
+        <v>45474</v>
+      </c>
+      <c r="C201" s="16">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="D201" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="E201">
-        <v>7</v>
-      </c>
-      <c r="F201">
-        <v>13</v>
-      </c>
-      <c r="G201" t="s">
-        <v>99</v>
-      </c>
-      <c r="H201" t="s">
-        <v>66</v>
-      </c>
-      <c r="I201">
-        <v>78</v>
+      <c r="E201" s="14">
+        <v>7</v>
+      </c>
+      <c r="F201" s="14">
+        <v>14</v>
+      </c>
+      <c r="G201" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="H201" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I201" s="14">
+        <v>73</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="B202" s="1">
-        <v>45566</v>
+        <v>45523</v>
       </c>
       <c r="C202" s="2">
-        <v>0.5708333333333333</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="D202" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E202">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F202">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G202" t="s">
-        <v>44</v>
+        <v>131</v>
       </c>
       <c r="H202" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="I202">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B203" s="1">
-        <v>45566</v>
+        <v>45523</v>
       </c>
       <c r="C203" s="2">
-        <v>0.51736111111111105</v>
+        <v>0.50138888888888888</v>
       </c>
       <c r="D203" s="5" t="s">
         <v>107</v>
@@ -22092,27 +22110,27 @@
         <v>7</v>
       </c>
       <c r="F203">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G203" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="H203" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="I203">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B204" s="1">
-        <v>45577</v>
+        <v>45512</v>
       </c>
       <c r="C204" s="2">
-        <v>0.50208333333333333</v>
+        <v>0.62916666666666665</v>
       </c>
       <c r="D204" s="5" t="s">
         <v>107</v>
@@ -22121,21 +22139,21 @@
         <v>7</v>
       </c>
       <c r="F204">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G204" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="H204" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I204">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I204">
-    <sortCondition ref="D2:D204"/>
+    <sortCondition ref="A1:A204"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -27997,8 +28015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92726F11-8484-441B-80F1-0BECE82C4FB6}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -28077,6 +28095,18 @@
       <c r="A5" s="8" t="s">
         <v>187</v>
       </c>
+      <c r="B5">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
